--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H2">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N2">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O2">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P2">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q2">
-        <v>5.581604756129977</v>
+        <v>13.74584124561445</v>
       </c>
       <c r="R2">
-        <v>5.581604756129977</v>
+        <v>123.71257121053</v>
       </c>
       <c r="S2">
-        <v>0.0005014432767910254</v>
+        <v>0.001121986320421413</v>
       </c>
       <c r="T2">
-        <v>0.0005014432767910254</v>
+        <v>0.001121986320421413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H3">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N3">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O3">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P3">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q3">
-        <v>81.98915888590584</v>
+        <v>124.7977127172691</v>
       </c>
       <c r="R3">
-        <v>81.98915888590584</v>
+        <v>1123.179414455422</v>
       </c>
       <c r="S3">
-        <v>0.007365787132802002</v>
+        <v>0.0101864501405711</v>
       </c>
       <c r="T3">
-        <v>0.007365787132802002</v>
+        <v>0.01018645014057111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H4">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I4">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J4">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N4">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O4">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P4">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q4">
-        <v>102.3730746515267</v>
+        <v>163.5978731801658</v>
       </c>
       <c r="R4">
-        <v>102.3730746515267</v>
+        <v>1472.380858621492</v>
       </c>
       <c r="S4">
-        <v>0.009197048564224491</v>
+        <v>0.01335346251119738</v>
       </c>
       <c r="T4">
-        <v>0.009197048564224491</v>
+        <v>0.01335346251119738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H5">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I5">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J5">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N5">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O5">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P5">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q5">
-        <v>139.3701449788047</v>
+        <v>208.7694607376652</v>
       </c>
       <c r="R5">
-        <v>139.3701449788047</v>
+        <v>1878.925146638986</v>
       </c>
       <c r="S5">
-        <v>0.01252081170890143</v>
+        <v>0.01704053428844508</v>
       </c>
       <c r="T5">
-        <v>0.01252081170890143</v>
+        <v>0.01704053428844508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H6">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I6">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J6">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N6">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O6">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P6">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q6">
-        <v>84.65579394378094</v>
+        <v>130.1304111773042</v>
       </c>
       <c r="R6">
-        <v>84.65579394378094</v>
+        <v>1171.173700595738</v>
       </c>
       <c r="S6">
-        <v>0.007605353759220359</v>
+        <v>0.01062172468042516</v>
       </c>
       <c r="T6">
-        <v>0.007605353759220359</v>
+        <v>0.01062172468042516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H7">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I7">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J7">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N7">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O7">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P7">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q7">
-        <v>23.21702349025372</v>
+        <v>40.133514587862</v>
       </c>
       <c r="R7">
-        <v>23.21702349025372</v>
+        <v>361.201631290758</v>
       </c>
       <c r="S7">
-        <v>0.00208578372080202</v>
+        <v>0.003275845657855301</v>
       </c>
       <c r="T7">
-        <v>0.00208578372080202</v>
+        <v>0.003275845657855302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J8">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N8">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O8">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P8">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q8">
-        <v>33.68838686651503</v>
+        <v>55.99302823632833</v>
       </c>
       <c r="R8">
-        <v>33.68838686651503</v>
+        <v>503.937254126955</v>
       </c>
       <c r="S8">
-        <v>0.003026515820848219</v>
+        <v>0.004570357724753575</v>
       </c>
       <c r="T8">
-        <v>0.003026515820848219</v>
+        <v>0.004570357724753577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J9">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N9">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O9">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P9">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q9">
-        <v>494.8545488419111</v>
+        <v>508.3575262617463</v>
       </c>
       <c r="R9">
-        <v>494.8545488419111</v>
+        <v>4575.217736355717</v>
       </c>
       <c r="S9">
-        <v>0.04445701502488364</v>
+        <v>0.04149401845674035</v>
       </c>
       <c r="T9">
-        <v>0.04445701502488364</v>
+        <v>0.04149401845674035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H10">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I10">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J10">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N10">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O10">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P10">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q10">
-        <v>617.883905123816</v>
+        <v>666.4081280076513</v>
       </c>
       <c r="R10">
-        <v>617.883905123816</v>
+        <v>5997.673152068861</v>
       </c>
       <c r="S10">
-        <v>0.0555097939748327</v>
+        <v>0.05439469218959425</v>
       </c>
       <c r="T10">
-        <v>0.0555097939748327</v>
+        <v>0.05439469218959425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H11">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I11">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J11">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N11">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O11">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P11">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q11">
-        <v>841.1837754244108</v>
+        <v>850.4124339204523</v>
       </c>
       <c r="R11">
-        <v>841.1837754244108</v>
+        <v>7653.71190528407</v>
       </c>
       <c r="S11">
-        <v>0.07557073049090689</v>
+        <v>0.06941380309331335</v>
       </c>
       <c r="T11">
-        <v>0.07557073049090689</v>
+        <v>0.06941380309331335</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H12">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I12">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J12">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N12">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O12">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P12">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q12">
-        <v>510.9493168139441</v>
+        <v>530.0800189133936</v>
       </c>
       <c r="R12">
-        <v>510.9493168139441</v>
+        <v>4770.720170220543</v>
       </c>
       <c r="S12">
-        <v>0.04590294563869573</v>
+        <v>0.04326708851954054</v>
       </c>
       <c r="T12">
-        <v>0.04590294563869573</v>
+        <v>0.04326708851954054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H13">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I13">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J13">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N13">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O13">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P13">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q13">
-        <v>140.1288882681361</v>
+        <v>163.481956134057</v>
       </c>
       <c r="R13">
-        <v>140.1288882681361</v>
+        <v>1471.337605206513</v>
       </c>
       <c r="S13">
-        <v>0.01258897610567776</v>
+        <v>0.01334400093385818</v>
       </c>
       <c r="T13">
-        <v>0.01258897610567776</v>
+        <v>0.01334400093385818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H14">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I14">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J14">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N14">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O14">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P14">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q14">
-        <v>27.52077386532558</v>
+        <v>48.12402994706888</v>
       </c>
       <c r="R14">
-        <v>27.52077386532558</v>
+        <v>433.11626952362</v>
       </c>
       <c r="S14">
-        <v>0.002472426413156137</v>
+        <v>0.00392806102728623</v>
       </c>
       <c r="T14">
-        <v>0.002472426413156137</v>
+        <v>0.00392806102728623</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H15">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I15">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J15">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N15">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O15">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P15">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q15">
-        <v>404.2574133593346</v>
+        <v>436.9153372877542</v>
       </c>
       <c r="R15">
-        <v>404.2574133593346</v>
+        <v>3932.238035589788</v>
       </c>
       <c r="S15">
-        <v>0.03631789975801151</v>
+        <v>0.03566264318493918</v>
       </c>
       <c r="T15">
-        <v>0.03631789975801151</v>
+        <v>0.03566264318493919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H16">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I16">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J16">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N16">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O16">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P16">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q16">
-        <v>504.7627627679255</v>
+        <v>572.7542467225076</v>
       </c>
       <c r="R16">
-        <v>504.7627627679255</v>
+        <v>5154.788220502567</v>
       </c>
       <c r="S16">
-        <v>0.0453471545950047</v>
+        <v>0.04675031657236333</v>
       </c>
       <c r="T16">
-        <v>0.0453471545950047</v>
+        <v>0.04675031657236332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H17">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I17">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J17">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N17">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O17">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P17">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q17">
-        <v>687.1812697462896</v>
+        <v>730.8994481351382</v>
       </c>
       <c r="R17">
-        <v>687.1812697462896</v>
+        <v>6578.095033216243</v>
       </c>
       <c r="S17">
-        <v>0.06173536871677639</v>
+        <v>0.05965871187933453</v>
       </c>
       <c r="T17">
-        <v>0.06173536871677639</v>
+        <v>0.05965871187933453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H18">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I18">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J18">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N18">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O18">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P18">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q18">
-        <v>417.4055783791762</v>
+        <v>455.5850524258724</v>
       </c>
       <c r="R18">
-        <v>417.4055783791762</v>
+        <v>4100.265471832852</v>
       </c>
       <c r="S18">
-        <v>0.03749911183579214</v>
+        <v>0.03718653427438533</v>
       </c>
       <c r="T18">
-        <v>0.03749911183579214</v>
+        <v>0.03718653427438533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>75.5016106770956</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H19">
-        <v>75.5016106770956</v>
+        <v>240.687676</v>
       </c>
       <c r="I19">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J19">
-        <v>0.1936561689293081</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N19">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O19">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P19">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q19">
-        <v>114.4743279429629</v>
+        <v>140.506966681548</v>
       </c>
       <c r="R19">
-        <v>114.4743279429629</v>
+        <v>1264.562700133932</v>
       </c>
       <c r="S19">
-        <v>0.01028420761056716</v>
+        <v>0.01146869745719642</v>
       </c>
       <c r="T19">
-        <v>0.01028420761056716</v>
+        <v>0.01146869745719642</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H20">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I20">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J20">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N20">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O20">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P20">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q20">
-        <v>29.50448409027579</v>
+        <v>48.56891069827555</v>
       </c>
       <c r="R20">
-        <v>29.50448409027579</v>
+        <v>437.12019628448</v>
       </c>
       <c r="S20">
-        <v>0.002650640062969024</v>
+        <v>0.003964373836968353</v>
       </c>
       <c r="T20">
-        <v>0.002650640062969024</v>
+        <v>0.003964373836968354</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H21">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I21">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J21">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N21">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O21">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P21">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q21">
-        <v>433.3964763928496</v>
+        <v>440.9543843850169</v>
       </c>
       <c r="R21">
-        <v>433.3964763928496</v>
+        <v>3968.589459465152</v>
       </c>
       <c r="S21">
-        <v>0.03893571092317846</v>
+        <v>0.03599232512362099</v>
       </c>
       <c r="T21">
-        <v>0.03893571092317846</v>
+        <v>0.03599232512362099</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H22">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I22">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J22">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N22">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O22">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P22">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q22">
-        <v>541.1462982955521</v>
+        <v>578.0490514140301</v>
       </c>
       <c r="R22">
-        <v>541.1462982955521</v>
+        <v>5202.441462726271</v>
       </c>
       <c r="S22">
-        <v>0.04861579866303532</v>
+        <v>0.0471824980829047</v>
       </c>
       <c r="T22">
-        <v>0.04861579866303532</v>
+        <v>0.0471824980829047</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H23">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I23">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J23">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N23">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O23">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P23">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q23">
-        <v>736.7136163968861</v>
+        <v>737.6562200825529</v>
       </c>
       <c r="R23">
-        <v>736.7136163968861</v>
+        <v>6638.905980742976</v>
       </c>
       <c r="S23">
-        <v>0.0661852829075557</v>
+        <v>0.06021022455576859</v>
       </c>
       <c r="T23">
-        <v>0.0661852829075557</v>
+        <v>0.06021022455576858</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H24">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I24">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J24">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N24">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O24">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P24">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q24">
-        <v>447.4923672839486</v>
+        <v>459.7966909894898</v>
       </c>
       <c r="R24">
-        <v>447.4923672839486</v>
+        <v>4138.170218905409</v>
       </c>
       <c r="S24">
-        <v>0.0402020653188312</v>
+        <v>0.03753030376586303</v>
       </c>
       <c r="T24">
-        <v>0.0402020653188312</v>
+        <v>0.03753030376586303</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>80.9438020134762</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H25">
-        <v>80.9438020134762</v>
+        <v>242.912704</v>
       </c>
       <c r="I25">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J25">
-        <v>0.2076149959706424</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N25">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O25">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P25">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q25">
-        <v>122.7256909295565</v>
+        <v>141.805877952192</v>
       </c>
       <c r="R25">
-        <v>122.7256909295565</v>
+        <v>1276.252901569728</v>
       </c>
       <c r="S25">
-        <v>0.01102549809507264</v>
+        <v>0.01157471939147191</v>
       </c>
       <c r="T25">
-        <v>0.01102549809507264</v>
+        <v>0.01157471939147191</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H26">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I26">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J26">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N26">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O26">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P26">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q26">
-        <v>20.47890516884064</v>
+        <v>34.09199121828166</v>
       </c>
       <c r="R26">
-        <v>20.47890516884064</v>
+        <v>306.827920964535</v>
       </c>
       <c r="S26">
-        <v>0.001839795141653163</v>
+        <v>0.002782714211474159</v>
       </c>
       <c r="T26">
-        <v>0.001839795141653163</v>
+        <v>0.002782714211474159</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H27">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I27">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J27">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N27">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O27">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P27">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q27">
-        <v>300.818184564836</v>
+        <v>309.5192538598677</v>
       </c>
       <c r="R27">
-        <v>300.818184564836</v>
+        <v>2785.673284738809</v>
       </c>
       <c r="S27">
-        <v>0.02702506945172994</v>
+        <v>0.02526410443221227</v>
       </c>
       <c r="T27">
-        <v>0.02702506945172994</v>
+        <v>0.02526410443221228</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H28">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I28">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J28">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N28">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O28">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P28">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q28">
-        <v>375.6067617164755</v>
+        <v>405.7501578935526</v>
       </c>
       <c r="R28">
-        <v>375.6067617164755</v>
+        <v>3651.751421041974</v>
       </c>
       <c r="S28">
-        <v>0.03374396676388195</v>
+        <v>0.03311882616210477</v>
       </c>
       <c r="T28">
-        <v>0.03374396676388195</v>
+        <v>0.03311882616210477</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H29">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I29">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J29">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N29">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O29">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P29">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q29">
-        <v>511.3489949738839</v>
+        <v>517.7832694950297</v>
       </c>
       <c r="R29">
-        <v>511.3489949738839</v>
+        <v>4660.049425455267</v>
       </c>
       <c r="S29">
-        <v>0.04593885214496741</v>
+        <v>0.04226338242498222</v>
       </c>
       <c r="T29">
-        <v>0.04593885214496741</v>
+        <v>0.04226338242498222</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H30">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I30">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J30">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N30">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O30">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P30">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q30">
-        <v>310.6020673111295</v>
+        <v>322.7452402379123</v>
       </c>
       <c r="R30">
-        <v>310.6020673111295</v>
+        <v>2904.707162141211</v>
       </c>
       <c r="S30">
-        <v>0.0279040392889712</v>
+        <v>0.02634365827872425</v>
       </c>
       <c r="T30">
-        <v>0.0279040392889712</v>
+        <v>0.02634365827872425</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>56.1826616038246</v>
+        <v>56.835931</v>
       </c>
       <c r="H31">
-        <v>56.1826616038246</v>
+        <v>170.507793</v>
       </c>
       <c r="I31">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410935</v>
       </c>
       <c r="J31">
-        <v>0.1441044622608168</v>
+        <v>0.1378973320410936</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N31">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O31">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P31">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q31">
-        <v>85.18324803229397</v>
+        <v>99.53784584298899</v>
       </c>
       <c r="R31">
-        <v>85.18324803229397</v>
+        <v>895.8406125869009</v>
       </c>
       <c r="S31">
-        <v>0.007652739469613114</v>
+        <v>0.008124646531595885</v>
       </c>
       <c r="T31">
-        <v>0.007652739469613114</v>
+        <v>0.008124646531595886</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H32">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I32">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J32">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.364505784956378</v>
+        <v>0.5998316666666667</v>
       </c>
       <c r="N32">
-        <v>0.364505784956378</v>
+        <v>1.799495</v>
       </c>
       <c r="O32">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="P32">
-        <v>0.01276709348752359</v>
+        <v>0.02017960877332208</v>
       </c>
       <c r="Q32">
-        <v>25.33737217964734</v>
+        <v>46.70354318436166</v>
       </c>
       <c r="R32">
-        <v>25.33737217964734</v>
+        <v>420.331888659255</v>
       </c>
       <c r="S32">
-        <v>0.00227627277210602</v>
+        <v>0.003812115652418345</v>
       </c>
       <c r="T32">
-        <v>0.00227627277210602</v>
+        <v>0.003812115652418346</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H33">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I33">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J33">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.35428860038838</v>
+        <v>5.445837666666667</v>
       </c>
       <c r="N33">
-        <v>5.35428860038838</v>
+        <v>16.337513</v>
       </c>
       <c r="O33">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="P33">
-        <v>0.1875380472453162</v>
+        <v>0.1832095230434447</v>
       </c>
       <c r="Q33">
-        <v>372.1850478765896</v>
+        <v>424.0188185688596</v>
       </c>
       <c r="R33">
-        <v>372.1850478765896</v>
+        <v>3816.169367119737</v>
       </c>
       <c r="S33">
-        <v>0.03343656495471063</v>
+        <v>0.03460998170536077</v>
       </c>
       <c r="T33">
-        <v>0.03343656495471063</v>
+        <v>0.03460998170536079</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H34">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I34">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J34">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.6854568828563</v>
+        <v>7.138972666666667</v>
       </c>
       <c r="N34">
-        <v>6.6854568828563</v>
+        <v>21.416918</v>
       </c>
       <c r="O34">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="P34">
-        <v>0.2341632329386736</v>
+        <v>0.2401701735044107</v>
       </c>
       <c r="Q34">
-        <v>464.7166553260243</v>
+        <v>555.8481433340646</v>
       </c>
       <c r="R34">
-        <v>464.7166553260243</v>
+        <v>5002.633290006582</v>
       </c>
       <c r="S34">
-        <v>0.04174947037769449</v>
+        <v>0.04537037798624625</v>
       </c>
       <c r="T34">
-        <v>0.04174947037769449</v>
+        <v>0.04537037798624625</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H35">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I35">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J35">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.10154450459631</v>
+        <v>9.110139666666667</v>
       </c>
       <c r="N35">
-        <v>9.10154450459631</v>
+        <v>27.330419</v>
       </c>
       <c r="O35">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="P35">
-        <v>0.3187885470320967</v>
+        <v>0.3064844098099569</v>
       </c>
       <c r="Q35">
-        <v>632.6627176854785</v>
+        <v>709.3253407279257</v>
       </c>
       <c r="R35">
-        <v>632.6627176854785</v>
+        <v>6383.928066551331</v>
       </c>
       <c r="S35">
-        <v>0.05683750106298894</v>
+        <v>0.05789775356811313</v>
       </c>
       <c r="T35">
-        <v>0.05683750106298894</v>
+        <v>0.05789775356811314</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H36">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I36">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J36">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.52843276634629</v>
+        <v>5.678542333333334</v>
       </c>
       <c r="N36">
-        <v>5.52843276634629</v>
+        <v>17.035627</v>
       </c>
       <c r="O36">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="P36">
-        <v>0.1936375796501518</v>
+        <v>0.1910382013110581</v>
       </c>
       <c r="Q36">
-        <v>384.29008359315</v>
+        <v>442.1374559346803</v>
       </c>
       <c r="R36">
-        <v>384.29008359315</v>
+        <v>3979.237103412123</v>
       </c>
       <c r="S36">
-        <v>0.03452406380864114</v>
+        <v>0.03608889179211978</v>
       </c>
       <c r="T36">
-        <v>0.03452406380864114</v>
+        <v>0.03608889179211978</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>69.5115776631078</v>
+        <v>77.86108299999999</v>
       </c>
       <c r="H37">
-        <v>69.5115776631078</v>
+        <v>233.583249</v>
       </c>
       <c r="I37">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900881</v>
       </c>
       <c r="J37">
-        <v>0.1782921676206465</v>
+        <v>0.1889092942900882</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.51618391867884</v>
+        <v>1.751319</v>
       </c>
       <c r="N37">
-        <v>1.51618391867884</v>
+        <v>5.253957</v>
       </c>
       <c r="O37">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="P37">
-        <v>0.05310549964623793</v>
+        <v>0.05891808355780757</v>
       </c>
       <c r="Q37">
-        <v>105.3923362147993</v>
+        <v>136.359594018477</v>
       </c>
       <c r="R37">
-        <v>105.3923362147993</v>
+        <v>1227.236346166293</v>
       </c>
       <c r="S37">
-        <v>0.009468294644505236</v>
+        <v>0.01113017358582987</v>
       </c>
       <c r="T37">
-        <v>0.009468294644505236</v>
+        <v>0.01113017358582988</v>
       </c>
     </row>
   </sheetData>
